--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58671,6 +58671,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2143">
+      <c r="A2143" s="1" t="n">
+        <v>45446.2916666667</v>
+      </c>
+      <c r="B2143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2143" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2143" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2143" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58697,6 +58697,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.2916666667</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58723,6 +58723,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.2916666667</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58749,6 +58749,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.2916666667</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58775,6 +58775,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.2916666667</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58801,6 +58801,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.2916666667</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58827,6 +58827,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45454.2916666667</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58879,6 +58879,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.2916666667</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58905,6 +58905,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.2916666667</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58931,6 +58931,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.2916666667</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58957,6 +58957,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.2916666667</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -58983,6 +58983,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.2916666667</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59009,6 +59009,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.2916666667</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59035,6 +59035,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.2916666667</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59061,6 +59061,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.2916666667</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59087,6 +59087,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.2916666667</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59113,6 +59113,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.2916666667</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59139,6 +59139,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.2916666667</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59165,6 +59165,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.2916666667</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59191,6 +59191,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.2916666667</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59217,6 +59217,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.2916666667</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59243,6 +59243,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.2916666667</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59269,6 +59269,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.2916666667</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59295,6 +59295,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.2916666667</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59321,6 +59321,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.2916666667</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59347,6 +59347,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.2916666667</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59373,6 +59373,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.2916666667</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59399,6 +59399,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.2916666667</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59425,6 +59425,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.2916666667</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59451,6 +59451,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.2916666667</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59477,6 +59477,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.2916666667</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59503,6 +59503,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.2916666667</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59529,6 +59529,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.2916666667</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59555,6 +59555,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.2916666667</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59581,6 +59581,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.2916666667</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59607,6 +59607,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.2916666667</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59633,6 +59633,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.2916666667</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59659,6 +59659,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.2916666667</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59685,6 +59685,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.2916666667</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59711,6 +59711,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.2916666667</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59737,6 +59737,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.2916666667</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -59763,6 +59763,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.2916666667</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.155000001192093</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>873</v>
+      </c>
+      <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/IIG.MI.xlsx
+++ b/data/IIG.MI.xlsx
@@ -2647,7 +2647,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -2685,7 +2685,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
